--- a/server-res/excel/Cfg_Item.xlsx
+++ b/server-res/excel/Cfg_Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6570"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -29,6 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>//物品ID  a bb ccccc 
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,10 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
-  <si>
-    <t>uint32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,20 +112,7 @@
     <t>flag</t>
   </si>
   <si>
-    <t>scriptid</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职业需求</t>
-  </si>
-  <si>
-    <t>脚本id</t>
   </si>
   <si>
     <t xml:space="preserve">技能掩码
@@ -235,14 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,10 +404,6 @@
   </si>
   <si>
     <t>attrib_change_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrib_chanage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图标路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,13 +491,24 @@
   <si>
     <t>使用获得金钱100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attrib":"ATTRIB_ATK_MIN","oplev"="0", "val"="1","desc":"攻击1-5"},
+{"attrib":"ATTRIB_ATK_MAX","oplev"="0", "val"="5","desc":"攻击1-5"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本id</t>
+  </si>
+  <si>
+    <t>scriptid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,13 +529,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -579,13 +552,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,6 +574,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -645,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,262 +896,270 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="83.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="121.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="R2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="S2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="R4" s="1"/>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="R5" s="1"/>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R7" s="1"/>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10100001</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f>400000000+A7</f>
+        <v>410100001</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>10100001</v>
+      <c r="A8" s="2">
+        <v>10100002</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
         <v>99</v>
@@ -1192,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1204,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1212,23 +1200,23 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <f>400000000+A8</f>
-        <v>410100001</v>
+        <v>410100002</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>10100002</v>
+        <v>10110001</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>99</v>
@@ -1249,20 +1237,20 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1270,22 +1258,22 @@
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <f>400000000+A9</f>
-        <v>410100002</v>
+        <f t="shared" ref="S9:S41" si="0">400000000+A9</f>
+        <v>410110001</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>10110001</v>
+        <v>10110002</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>99</v>
@@ -1306,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1318,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1327,22 +1315,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:S18" si="0">400000000+A10</f>
-        <v>410110001</v>
+        <f t="shared" si="0"/>
+        <v>410110002</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>10110002</v>
+        <v>10120001</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>99</v>
@@ -1363,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1375,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1385,21 +1373,21 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>410110002</v>
+        <v>410120001</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>10120001</v>
+        <v>10120002</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>99</v>
@@ -1420,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1442,42 +1430,42 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>410120001</v>
+        <v>410120002</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>10120002</v>
+      <c r="A13">
+        <v>10200001</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1486,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1499,29 +1487,32 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>410120002</v>
+        <v>410200001</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10200001</v>
+        <v>10400001</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="2">
@@ -1533,22 +1524,22 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14">
@@ -1556,30 +1547,30 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>410200001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>10400001</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15">
+        <v>410400001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>10500001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1611,35 +1602,36 @@
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>0</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>410400001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>10500001</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>410500001</v>
+      </c>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>10900001</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>9999</v>
+        <v>99999</v>
       </c>
       <c r="G16" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1675,85 +1667,85 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16" si="1">400000000+A16</f>
-        <v>410500001</v>
+        <f t="shared" si="0"/>
+        <v>410900001</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>10900001</v>
+        <v>11100001</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="0"/>
+        <v>411100001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>11100002</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>99999</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>410900001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>11100001</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" s="2">
+        <v>2</v>
       </c>
       <c r="F18" s="2">
         <v>999</v>
@@ -1773,12 +1765,12 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18">
         <v>3</v>
       </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
@@ -1794,26 +1786,26 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="2">
         <f t="shared" si="0"/>
-        <v>411100001</v>
+        <v>411100002</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>11100002</v>
+        <v>11100003</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
         <v>999</v>
@@ -1834,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -1855,25 +1847,25 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19:S21" si="2">400000000+A19</f>
-        <v>411100002</v>
+        <f t="shared" si="0"/>
+        <v>411100003</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>11100003</v>
+        <v>11100004</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>999</v>
@@ -1894,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -1915,25 +1907,25 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="2"/>
-        <v>411100003</v>
+        <f t="shared" si="0"/>
+        <v>411100004</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>11100004</v>
-      </c>
-      <c r="B21" s="2">
+        <v>11200001</v>
+      </c>
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4</v>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21" s="2">
         <v>999</v>
@@ -1954,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -1975,22 +1967,22 @@
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="2"/>
-        <v>411100004</v>
+        <f t="shared" si="0"/>
+        <v>411200001</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>11200001</v>
+        <v>11300001</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2014,73 +2006,73 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>500</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="0"/>
+        <v>411300001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>20110001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>100</v>
+      </c>
+      <c r="J23" s="2">
+        <v>100</v>
+      </c>
+      <c r="K23" s="2">
         <v>5</v>
       </c>
-      <c r="M22">
-        <v>9</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <f t="shared" ref="S22:S30" si="3">400000000+A22</f>
-        <v>411200001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>11300001</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>500</v>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -2095,24 +2087,27 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="3"/>
-        <v>411300001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>20110001</v>
-      </c>
-      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>420110001</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20111001</v>
+      </c>
+      <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="2">
+        <v>54</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="2">
@@ -2130,16 +2125,16 @@
       <c r="J24" s="2">
         <v>100</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" s="2">
@@ -2155,25 +2150,25 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24" si="4">400000000+A24</f>
-        <v>420110001</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>420111001</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>20111001</v>
+        <v>20112001</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2194,10 +2189,10 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2217,26 +2212,26 @@
       <c r="R25" s="2">
         <v>0</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="3"/>
-        <v>420111001</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>100</v>
+      <c r="S25" s="2">
+        <f t="shared" si="0"/>
+        <v>420112001</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>20112001</v>
+      <c r="A26" s="2">
+        <v>20113001</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2260,7 +2255,7 @@
         <v>7</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2280,26 +2275,26 @@
       <c r="R26" s="2">
         <v>0</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="3"/>
-        <v>420112001</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>101</v>
+      <c r="S26" s="2">
+        <f t="shared" si="0"/>
+        <v>420113001</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>20113001</v>
+        <v>20114001</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2320,10 +2315,10 @@
         <v>100</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2337,32 +2332,32 @@
       <c r="P27" s="2">
         <v>0</v>
       </c>
-      <c r="Q27" s="2">
-        <v>0</v>
+      <c r="Q27">
+        <v>100101</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="3"/>
-        <v>420113001</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>420114001</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>20114001</v>
+        <v>20115001</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2383,51 +2378,51 @@
         <v>100</v>
       </c>
       <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>100201</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="0"/>
+        <v>420115001</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>20120001</v>
+      </c>
+      <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="L28">
-        <v>40</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>100101</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" si="3"/>
-        <v>420114001</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>20115001</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2">
@@ -2445,16 +2440,16 @@
       <c r="J29" s="2">
         <v>100</v>
       </c>
-      <c r="K29">
-        <v>15</v>
-      </c>
-      <c r="L29">
-        <v>50</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
+      <c r="K29" s="2">
+        <v>5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
         <v>0</v>
       </c>
       <c r="O29" s="2">
@@ -2463,32 +2458,32 @@
       <c r="P29" s="2">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>100201</v>
+      <c r="Q29" s="2">
+        <v>0</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="3"/>
-        <v>420115001</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>420120001</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>20120001</v>
+        <v>20121001</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2512,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M30" s="2">
         <v>2</v>
@@ -2533,26 +2528,26 @@
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="3"/>
-        <v>420120001</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>420121001</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>20121001</v>
+        <v>20122001</v>
       </c>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
@@ -2572,10 +2567,10 @@
         <v>100</v>
       </c>
       <c r="K31" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M31" s="2">
         <v>2</v>
@@ -2596,25 +2591,25 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" ref="S31:S36" si="5">400000000+A31</f>
-        <v>420121001</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>420122001</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>20122001</v>
+        <v>20123001</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -2638,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="L32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M32" s="2">
         <v>2</v>
@@ -2659,26 +2654,26 @@
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="5"/>
-        <v>420122001</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>420123001</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>20123001</v>
+        <v>20124001</v>
       </c>
       <c r="B33" s="2">
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
@@ -2698,10 +2693,10 @@
         <v>100</v>
       </c>
       <c r="K33" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L33" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M33" s="2">
         <v>2</v>
@@ -2716,32 +2711,32 @@
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <v>0</v>
+        <v>200101</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="5"/>
-        <v>420123001</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>420124001</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>20124001</v>
+        <v>20125001</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
@@ -2761,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="K34" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L34" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M34" s="2">
         <v>2</v>
@@ -2779,25 +2774,25 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>200101</v>
+        <v>200201</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="5"/>
-        <v>420124001</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>420125001</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>20125001</v>
+        <v>20220001</v>
       </c>
       <c r="B35" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>72</v>
@@ -2824,10 +2819,10 @@
         <v>100</v>
       </c>
       <c r="K35" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L35" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <v>2</v>
@@ -2842,31 +2837,31 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>200201</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="5"/>
-        <v>420125001</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>420220001</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>20220001</v>
+        <v>21020001</v>
       </c>
       <c r="B36" s="2">
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -2890,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M36" s="2">
         <v>2</v>
@@ -2911,26 +2906,26 @@
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="5"/>
-        <v>420220001</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>421020001</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>21020001</v>
+        <v>21021001</v>
       </c>
       <c r="B37" s="2">
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
@@ -2950,10 +2945,10 @@
         <v>100</v>
       </c>
       <c r="K37" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L37" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M37" s="2">
         <v>2</v>
@@ -2974,25 +2969,25 @@
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" ref="S37:S42" si="6">400000000+A37</f>
-        <v>421020001</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>421021001</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>21021001</v>
+        <v>21022001</v>
       </c>
       <c r="B38" s="2">
         <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -3016,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="L38" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M38" s="2">
         <v>2</v>
@@ -3037,26 +3032,26 @@
         <v>0</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="6"/>
-        <v>421021001</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>421022001</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>21022001</v>
+        <v>21023001</v>
       </c>
       <c r="B39" s="2">
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
@@ -3076,10 +3071,10 @@
         <v>100</v>
       </c>
       <c r="K39" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L39" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M39" s="2">
         <v>2</v>
@@ -3094,32 +3089,32 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>200101</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="6"/>
-        <v>421022001</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>421023001</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>21023001</v>
+        <v>21024001</v>
       </c>
       <c r="B40" s="2">
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
@@ -3139,10 +3134,10 @@
         <v>100</v>
       </c>
       <c r="K40" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L40" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M40" s="2">
         <v>2</v>
@@ -3157,33 +3152,33 @@
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>200101</v>
+        <v>200201</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="6"/>
-        <v>421023001</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>21024001</v>
-      </c>
-      <c r="B41" s="2">
-        <v>11</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>421024001</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="54" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>22300001</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="2">
+        <v>85</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" s="2">
@@ -3192,7 +3187,7 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" s="2">
@@ -3201,14 +3196,14 @@
       <c r="J41" s="2">
         <v>100</v>
       </c>
-      <c r="K41" s="2">
-        <v>15</v>
-      </c>
-      <c r="L41" s="2">
-        <v>50</v>
-      </c>
-      <c r="M41" s="2">
-        <v>2</v>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -3220,80 +3215,17 @@
         <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <v>200201</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="6"/>
-        <v>421024001</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="54" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>22300001</v>
-      </c>
-      <c r="B42">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>100</v>
-      </c>
-      <c r="J42" s="2">
-        <v>100</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>422300001</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>105</v>
+      <c r="T41" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
